--- a/data/trans_orig/P63-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P63-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>299928</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>287359</v>
+        <v>287966</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>308729</v>
+        <v>309625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8975001933072485</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8598895276881516</v>
+        <v>0.8617059954909109</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9238389374445356</v>
+        <v>0.9265190729569941</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>289</v>
@@ -765,19 +765,19 @@
         <v>300573</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>272810</v>
+        <v>275015</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>326376</v>
+        <v>326413</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4277722468019958</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.388259259845054</v>
+        <v>0.3913982582246716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4644937296568528</v>
+        <v>0.4645473039093375</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>593</v>
@@ -786,19 +786,19 @@
         <v>600502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>571451</v>
+        <v>566155</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>633745</v>
+        <v>630280</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5791706627832964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.55115228278191</v>
+        <v>0.5460441285767541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6112336648421377</v>
+        <v>0.6078912333104591</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>34253</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25452</v>
+        <v>24556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46822</v>
+        <v>46215</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1024998066927514</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07616106255546436</v>
+        <v>0.07348092704300588</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1401104723118485</v>
+        <v>0.1382940045090884</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>394</v>
@@ -836,19 +836,19 @@
         <v>402075</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>376272</v>
+        <v>376235</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>429838</v>
+        <v>427633</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5722277531980042</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5355062703431471</v>
+        <v>0.5354526960906626</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6117407401549462</v>
+        <v>0.6086017417753284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>428</v>
@@ -857,19 +857,19 @@
         <v>436328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>403085</v>
+        <v>406550</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>465379</v>
+        <v>470675</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4208293372167036</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3887663351578622</v>
+        <v>0.3921087666895408</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4488477172180901</v>
+        <v>0.4539558714232458</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>358524</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>342158</v>
+        <v>343269</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>372682</v>
+        <v>373298</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8294909691277763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7916258236075655</v>
+        <v>0.7941970380963154</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8622467646176106</v>
+        <v>0.8636708358862477</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>362</v>
@@ -982,19 +982,19 @@
         <v>371960</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>346423</v>
+        <v>345823</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>399334</v>
+        <v>401499</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4855560440159822</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.452220976338598</v>
+        <v>0.4514375935047774</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.521290936807067</v>
+        <v>0.5241166341633627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>726</v>
@@ -1003,19 +1003,19 @@
         <v>730484</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>697739</v>
+        <v>695644</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>762757</v>
+        <v>761485</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6096150626945614</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5822877516712428</v>
+        <v>0.5805394618383118</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6365482583551269</v>
+        <v>0.6354866491910934</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>73698</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>59540</v>
+        <v>58924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>90064</v>
+        <v>88953</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1705090308722237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1377532353823895</v>
+        <v>0.1363291641137523</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2083741763924345</v>
+        <v>0.2058029619036846</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>389</v>
@@ -1053,19 +1053,19 @@
         <v>394089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>366715</v>
+        <v>364550</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419626</v>
+        <v>420226</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5144439559840178</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4787090631929327</v>
+        <v>0.4758833658366373</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5477790236614019</v>
+        <v>0.5485624064952226</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>462</v>
@@ -1074,19 +1074,19 @@
         <v>467787</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>435514</v>
+        <v>436786</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>500532</v>
+        <v>502627</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3903849373054386</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3634517416448732</v>
+        <v>0.3645133508089065</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4177122483287573</v>
+        <v>0.419460538161688</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>277695</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>257983</v>
+        <v>260362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>294383</v>
+        <v>296829</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6748194295882038</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6269190161121241</v>
+        <v>0.6326983135980137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7153721426196433</v>
+        <v>0.7213158505983009</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>297</v>
@@ -1199,19 +1199,19 @@
         <v>300903</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>277799</v>
+        <v>274955</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>326135</v>
+        <v>324366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4727017370721183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4364061730607181</v>
+        <v>0.4319383765137564</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5123392440410304</v>
+        <v>0.5095597862963279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>575</v>
@@ -1220,19 +1220,19 @@
         <v>578598</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>544336</v>
+        <v>544746</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>605438</v>
+        <v>612036</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5520603126438889</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5193697561712303</v>
+        <v>0.5197609795385464</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5776684948206318</v>
+        <v>0.5839641823409329</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>133815</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>117127</v>
+        <v>114681</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>153527</v>
+        <v>151148</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3251805704117961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2846278573803565</v>
+        <v>0.2786841494016991</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3730809838878758</v>
+        <v>0.3673016864019865</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>337</v>
@@ -1270,19 +1270,19 @@
         <v>335658</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>310426</v>
+        <v>312195</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>358762</v>
+        <v>361606</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5272982629278816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4876607559589697</v>
+        <v>0.4904402137036721</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5635938269392819</v>
+        <v>0.5680616234862436</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>477</v>
@@ -1291,19 +1291,19 @@
         <v>469473</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>442633</v>
+        <v>436035</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>503735</v>
+        <v>503325</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4479396873561111</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4223315051793682</v>
+        <v>0.4160358176590669</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4806302438287697</v>
+        <v>0.4802390204614531</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>90012</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77813</v>
+        <v>78038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100492</v>
+        <v>102242</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6346655169925622</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5486495384869543</v>
+        <v>0.5502349545217893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7085615282710487</v>
+        <v>0.720899271443372</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -1416,19 +1416,19 @@
         <v>77817</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65432</v>
+        <v>64555</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91161</v>
+        <v>90291</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4313723789984849</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3627144202139516</v>
+        <v>0.357856957686984</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5053419133690116</v>
+        <v>0.5005202424901862</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>168</v>
@@ -1437,19 +1437,19 @@
         <v>167829</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151560</v>
+        <v>151002</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>185700</v>
+        <v>186376</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5208523028640267</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4703641824457088</v>
+        <v>0.4686301334130721</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5763156187677116</v>
+        <v>0.5784128951140148</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>51814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41334</v>
+        <v>39584</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64013</v>
+        <v>63788</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3653344830074378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2914384717289513</v>
+        <v>0.2791007285566277</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4513504615130457</v>
+        <v>0.4497650454782106</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -1487,19 +1487,19 @@
         <v>102577</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89233</v>
+        <v>90103</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114962</v>
+        <v>115839</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5686276210015151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4946580866309885</v>
+        <v>0.4994797575098139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6372855797860484</v>
+        <v>0.642143042313016</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>158</v>
@@ -1508,19 +1508,19 @@
         <v>154390</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>136519</v>
+        <v>135843</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>170659</v>
+        <v>171217</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4791476971359733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4236843812322884</v>
+        <v>0.4215871048859853</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5296358175542911</v>
+        <v>0.5313698665869278</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1026159</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>995099</v>
+        <v>997255</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1054803</v>
+        <v>1055270</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7775468616821534</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7540117758049031</v>
+        <v>0.7556459063020893</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.799251508705879</v>
+        <v>0.7996047407139379</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1025</v>
@@ -1633,19 +1633,19 @@
         <v>1051254</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1006074</v>
+        <v>1005247</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1103171</v>
+        <v>1096448</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.459935947222832</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4401694793427066</v>
+        <v>0.4398075655224609</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4826502524814355</v>
+        <v>0.4797092856163831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2062</v>
@@ -1654,19 +1654,19 @@
         <v>2077412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2020456</v>
+        <v>2020586</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2135199</v>
+        <v>2143509</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5761961658788002</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5603984499282576</v>
+        <v>0.5604345566630005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5922239881502855</v>
+        <v>0.5945288325586167</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>293580</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>264936</v>
+        <v>264469</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>324640</v>
+        <v>322484</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2224531383178466</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2007484912941209</v>
+        <v>0.200395259286062</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2459882241950966</v>
+        <v>0.2443540936979107</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1224</v>
@@ -1704,19 +1704,19 @@
         <v>1234398</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1182481</v>
+        <v>1189204</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1279578</v>
+        <v>1280405</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5400640527771681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5173497475185646</v>
+        <v>0.520290714383617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5598305206572933</v>
+        <v>0.5601924344775391</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1525</v>
@@ -1725,19 +1725,19 @@
         <v>1527979</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1470192</v>
+        <v>1461882</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1584935</v>
+        <v>1584805</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4238038341211999</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4077760118497145</v>
+        <v>0.4054711674413833</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4396015500717424</v>
+        <v>0.4395654433369994</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>704513</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>687890</v>
+        <v>689893</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>717657</v>
+        <v>718222</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9287560170613689</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9068417356624124</v>
+        <v>0.9094815381266204</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9460834358209439</v>
+        <v>0.946827890259389</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>498</v>
@@ -2090,19 +2090,19 @@
         <v>544890</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>513739</v>
+        <v>515210</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>574422</v>
+        <v>574846</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6110672068966577</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5761328201877534</v>
+        <v>0.5777821957678295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6441850457257349</v>
+        <v>0.6446613244150176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1157</v>
@@ -2111,19 +2111,19 @@
         <v>1249404</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1214588</v>
+        <v>1216042</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1285277</v>
+        <v>1283264</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7570956461998922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7359983958237416</v>
+        <v>0.7368797537425319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7788334780584922</v>
+        <v>0.7776138300711021</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>54043</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40899</v>
+        <v>40334</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>70666</v>
+        <v>68663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07124398293863109</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05391656417905606</v>
+        <v>0.05317210974061173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09315826433758746</v>
+        <v>0.09051846187338017</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>323</v>
@@ -2161,19 +2161,19 @@
         <v>346813</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>317281</v>
+        <v>316857</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>377964</v>
+        <v>376493</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3889327931033422</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3558149542742651</v>
+        <v>0.3553386755849824</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4238671798122466</v>
+        <v>0.4222178042321705</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>376</v>
@@ -2182,19 +2182,19 @@
         <v>400855</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>364982</v>
+        <v>366995</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>435671</v>
+        <v>434217</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2429043538001077</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2211665219415075</v>
+        <v>0.222386169928898</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2640016041762583</v>
+        <v>0.2631202462574681</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>504523</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>485310</v>
+        <v>484995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>520861</v>
+        <v>521076</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8550516817858043</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.822489031391287</v>
+        <v>0.8219563830497054</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8827406549630277</v>
+        <v>0.8831039884971507</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>421</v>
@@ -2307,19 +2307,19 @@
         <v>454125</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>426028</v>
+        <v>426209</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>484124</v>
+        <v>484797</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5441323761595032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5104669205196575</v>
+        <v>0.5106836755965518</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5800770329959409</v>
+        <v>0.580883971128154</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>887</v>
@@ -2328,19 +2328,19 @@
         <v>958648</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>920994</v>
+        <v>924468</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>993524</v>
+        <v>995202</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.672907737036253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.646477207200864</v>
+        <v>0.6489155968090866</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6973886758844555</v>
+        <v>0.6985663901306713</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>85527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69189</v>
+        <v>68974</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104740</v>
+        <v>105055</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1449483182141958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1172593450369715</v>
+        <v>0.1168960115028493</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.177510968608713</v>
+        <v>0.1780436169502946</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>361</v>
@@ -2378,19 +2378,19 @@
         <v>380460</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>350461</v>
+        <v>349788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>408557</v>
+        <v>408376</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4558676238404968</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4199229670040591</v>
+        <v>0.419116028871846</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4895330794803425</v>
+        <v>0.4893163244034484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>446</v>
@@ -2399,19 +2399,19 @@
         <v>465987</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>431111</v>
+        <v>429433</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>503641</v>
+        <v>500167</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.327092262963747</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3026113241155444</v>
+        <v>0.3014336098693287</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3535227927991361</v>
+        <v>0.3510844031909133</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>349270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>331353</v>
+        <v>332273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>362602</v>
+        <v>364402</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.817329675779653</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7754013547868859</v>
+        <v>0.7775539068102222</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8485271644692015</v>
+        <v>0.8527393478042543</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>304</v>
@@ -2524,19 +2524,19 @@
         <v>329446</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>301912</v>
+        <v>305139</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>351591</v>
+        <v>355755</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5563396482548226</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5098420474894723</v>
+        <v>0.51529275617373</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5937363264238122</v>
+        <v>0.6007687378426422</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>624</v>
@@ -2545,19 +2545,19 @@
         <v>678716</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>645725</v>
+        <v>647887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>708405</v>
+        <v>709998</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6657357289902909</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6333753922883252</v>
+        <v>0.6354962899868787</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6948569693962238</v>
+        <v>0.6964193663946673</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>78061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64729</v>
+        <v>62929</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95978</v>
+        <v>95058</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.182670324220347</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1514728355307985</v>
+        <v>0.1472606521957457</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2245986452131141</v>
+        <v>0.2224460931897778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>249</v>
@@ -2595,19 +2595,19 @@
         <v>262721</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240576</v>
+        <v>236412</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>290255</v>
+        <v>287028</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4436603517451773</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4062636735761874</v>
+        <v>0.3992312621573578</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4901579525105276</v>
+        <v>0.4847072438262698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>327</v>
@@ -2616,19 +2616,19 @@
         <v>340782</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>311093</v>
+        <v>309500</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>373773</v>
+        <v>371611</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3342642710097091</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3051430306037762</v>
+        <v>0.3035806336053323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3666246077116749</v>
+        <v>0.3645037100131212</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>160288</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>147359</v>
+        <v>147003</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>171786</v>
+        <v>171733</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7756339105086318</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7130698926686125</v>
+        <v>0.7113476430662909</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8312711844202793</v>
+        <v>0.8310176570276445</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>137</v>
@@ -2741,19 +2741,19 @@
         <v>152518</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135976</v>
+        <v>136286</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169174</v>
+        <v>169677</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5751459643391664</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.512767122705172</v>
+        <v>0.5139373363256332</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6379580571880877</v>
+        <v>0.6398547284899682</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>283</v>
@@ -2762,19 +2762,19 @@
         <v>312805</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>292068</v>
+        <v>289562</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>332561</v>
+        <v>332521</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.662955519917471</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6190058010261661</v>
+        <v>0.6136936721525589</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7048272942901151</v>
+        <v>0.7047406971023447</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>46366</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34868</v>
+        <v>34921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59295</v>
+        <v>59651</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2243660894913681</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1687288155797207</v>
+        <v>0.1689823429723555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2869301073313874</v>
+        <v>0.2886523569337089</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>105</v>
@@ -2812,19 +2812,19 @@
         <v>112663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>96007</v>
+        <v>95504</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129205</v>
+        <v>128895</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4248540356608336</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3620419428119123</v>
+        <v>0.3601452715100318</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4872328772948279</v>
+        <v>0.4860626636743668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>151</v>
@@ -2833,19 +2833,19 @@
         <v>159029</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>139273</v>
+        <v>139313</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>179766</v>
+        <v>182272</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.337044480082529</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2951727057098847</v>
+        <v>0.2952593028976554</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3809941989738339</v>
+        <v>0.3863063278474411</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1718594</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1687492</v>
+        <v>1688221</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1749538</v>
+        <v>1747163</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8668428858852835</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8511555514394121</v>
+        <v>0.8515227884312623</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8824506158353046</v>
+        <v>0.8812528453311915</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1360</v>
@@ -2958,19 +2958,19 @@
         <v>1480979</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1429098</v>
+        <v>1428964</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1529345</v>
+        <v>1533321</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5732150107021788</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.553134407316448</v>
+        <v>0.5530824835412403</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5919352234585512</v>
+        <v>0.5934742096223516</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2951</v>
@@ -2979,19 +2979,19 @@
         <v>3199574</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3132733</v>
+        <v>3141823</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3260287</v>
+        <v>3264664</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7007040422778988</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6860659927942574</v>
+        <v>0.6880565760780702</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7140001311727875</v>
+        <v>0.7149586628936541</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>263996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>233052</v>
+        <v>235427</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>295098</v>
+        <v>294369</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1331571141147165</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1175493841646953</v>
+        <v>0.1187471546688084</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1488444485605879</v>
+        <v>0.1484772115687378</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1038</v>
@@ -3029,19 +3029,19 @@
         <v>1102657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1054291</v>
+        <v>1050315</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1154538</v>
+        <v>1154672</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4267849892978211</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4080647765414488</v>
+        <v>0.4065257903776484</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4468655926835521</v>
+        <v>0.4469175164587597</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1300</v>
@@ -3050,19 +3050,19 @@
         <v>1366653</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1305940</v>
+        <v>1301563</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1433494</v>
+        <v>1424404</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2992959577221011</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2859998688272123</v>
+        <v>0.2850413371063457</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3139340072057425</v>
+        <v>0.3119434239219297</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>770502</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>753083</v>
+        <v>753971</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>785446</v>
+        <v>784589</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9233992808602678</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9025232912815216</v>
+        <v>0.9035879556880793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.941308518865853</v>
+        <v>0.9402816613607599</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>592</v>
@@ -3415,19 +3415,19 @@
         <v>626200</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>594664</v>
+        <v>593236</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>658053</v>
+        <v>656533</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6382995142691094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6061541675138756</v>
+        <v>0.604698897831939</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6707681083198344</v>
+        <v>0.6692188288898592</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1329</v>
@@ -3436,19 +3436,19 @@
         <v>1396702</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1360408</v>
+        <v>1357498</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1433261</v>
+        <v>1432860</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7693364125640867</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7493448966721015</v>
+        <v>0.7477418661110865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7894738238155889</v>
+        <v>0.7892533759931832</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>63917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48973</v>
+        <v>49830</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81336</v>
+        <v>80448</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07660071913973225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05869148113414695</v>
+        <v>0.05971833863924007</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09747670871847823</v>
+        <v>0.0964120443119207</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>325</v>
@@ -3486,19 +3486,19 @@
         <v>354844</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>322991</v>
+        <v>324511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>386380</v>
+        <v>387808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3617004857308906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3292318916801656</v>
+        <v>0.3307811711101408</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3938458324861244</v>
+        <v>0.395301102168061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>385</v>
@@ -3507,19 +3507,19 @@
         <v>418761</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382202</v>
+        <v>382603</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>455055</v>
+        <v>457965</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2306635874359133</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.210526176184411</v>
+        <v>0.210746624006817</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2506551033278985</v>
+        <v>0.2522581338889135</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>422812</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>403174</v>
+        <v>403271</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>438925</v>
+        <v>438753</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8217531873230111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7835858185223098</v>
+        <v>0.7837741168981465</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8530696303894821</v>
+        <v>0.8527366286262988</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>369</v>
@@ -3632,19 +3632,19 @@
         <v>388601</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>362800</v>
+        <v>360768</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>418203</v>
+        <v>416463</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5306184266428742</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4953890189981764</v>
+        <v>0.4926137115054267</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5710397018669877</v>
+        <v>0.5686629075132262</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>788</v>
@@ -3653,19 +3653,19 @@
         <v>811412</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>781190</v>
+        <v>773731</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>848049</v>
+        <v>843674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6507550610123702</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6265168355524284</v>
+        <v>0.6205348007534741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6801376509852872</v>
+        <v>0.6766290856345748</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>91712</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>75599</v>
+        <v>75771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>111350</v>
+        <v>111253</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.178246812676989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1469303696105178</v>
+        <v>0.1472633713737012</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2164141814776902</v>
+        <v>0.2162258831018536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>315</v>
@@ -3703,19 +3703,19 @@
         <v>343753</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314151</v>
+        <v>315891</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369554</v>
+        <v>371586</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4693815733571258</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4289602981330122</v>
+        <v>0.4313370924867738</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5046109810018236</v>
+        <v>0.5073862884945733</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>403</v>
@@ -3724,19 +3724,19 @@
         <v>435466</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>398829</v>
+        <v>403204</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>465688</v>
+        <v>473147</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3492449389876298</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3198623490147128</v>
+        <v>0.3233709143654248</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3734831644475716</v>
+        <v>0.3794651992465259</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>288652</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>271734</v>
+        <v>273799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>302867</v>
+        <v>304594</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7969365326510764</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7502289492478785</v>
+        <v>0.7559292115819716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8361827921660725</v>
+        <v>0.8409513078861158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -3849,19 +3849,19 @@
         <v>236964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214018</v>
+        <v>215633</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>258273</v>
+        <v>260633</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5047147494858684</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4558432770449227</v>
+        <v>0.4592825086498543</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.550102965356672</v>
+        <v>0.5551282038259049</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>501</v>
@@ -3870,19 +3870,19 @@
         <v>525615</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>497335</v>
+        <v>495664</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>550754</v>
+        <v>553624</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6319758614261193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5979735612754812</v>
+        <v>0.5959642104917156</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6622021010204637</v>
+        <v>0.6656525941438155</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>73550</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59335</v>
+        <v>57608</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>90468</v>
+        <v>88403</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2030634673489235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1638172078339276</v>
+        <v>0.1590486921138842</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2497710507521215</v>
+        <v>0.2440707884180284</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -3920,19 +3920,19 @@
         <v>232536</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>211227</v>
+        <v>208867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255482</v>
+        <v>253867</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4952852505141316</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.449897034643328</v>
+        <v>0.4448717961740951</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5441567229550773</v>
+        <v>0.5407174913501457</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>281</v>
@@ -3941,19 +3941,19 @@
         <v>306086</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>280947</v>
+        <v>278077</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>334366</v>
+        <v>336037</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3680241385738807</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3377978989795365</v>
+        <v>0.3343474058561849</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4020264387245188</v>
+        <v>0.4040357895082846</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>172906</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>158348</v>
+        <v>159814</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>185074</v>
+        <v>186073</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7570624385687338</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6933182659282512</v>
+        <v>0.6997379453422417</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.810339614152242</v>
+        <v>0.8147119618070592</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -4066,19 +4066,19 @@
         <v>151034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132743</v>
+        <v>133449</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>168403</v>
+        <v>168647</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5124512728904391</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4503887919611116</v>
+        <v>0.4527861861215765</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5713838125639601</v>
+        <v>0.5722113192604503</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>303</v>
@@ -4087,19 +4087,19 @@
         <v>323941</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>299689</v>
+        <v>297820</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>345085</v>
+        <v>344960</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6192469841382005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5728865830611761</v>
+        <v>0.5693140479011845</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6596649890416255</v>
+        <v>0.6594270066357637</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>55485</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43317</v>
+        <v>42318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70043</v>
+        <v>68577</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2429375614312662</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.189660385847758</v>
+        <v>0.1852880381929409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3066817340717489</v>
+        <v>0.3002620546577585</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -4137,19 +4137,19 @@
         <v>143695</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>126326</v>
+        <v>126082</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161986</v>
+        <v>161280</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4875487271095609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4286161874360399</v>
+        <v>0.4277886807395497</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5496112080388884</v>
+        <v>0.5472138138784236</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>186</v>
@@ -4158,19 +4158,19 @@
         <v>199180</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>178036</v>
+        <v>178161</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>223432</v>
+        <v>225301</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3807530158617995</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3403350109583745</v>
+        <v>0.3405729933642363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4271134169388239</v>
+        <v>0.4306859520988155</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1654872</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1622228</v>
+        <v>1620829</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1686154</v>
+        <v>1687049</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8532308319213513</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.836400054481155</v>
+        <v>0.8356787522290604</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8693592846861041</v>
+        <v>0.8698206796910656</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1313</v>
@@ -4283,19 +4283,19 @@
         <v>1402798</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1349212</v>
+        <v>1347049</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1451121</v>
+        <v>1453211</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5661862274118767</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5445580553830027</v>
+        <v>0.5436850381476618</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5856898212826983</v>
+        <v>0.5865333813791872</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2921</v>
@@ -4304,19 +4304,19 @@
         <v>3057670</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2994493</v>
+        <v>2995392</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3114105</v>
+        <v>3121264</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6922248682887097</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6779223260816063</v>
+        <v>0.6781258427158272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7050010435659716</v>
+        <v>0.7066219708176484</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>284664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>253382</v>
+        <v>252487</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>317308</v>
+        <v>318707</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1467691680786487</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1306407153138964</v>
+        <v>0.1301793203089348</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1635999455188452</v>
+        <v>0.1643212477709398</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>985</v>
@@ -4354,19 +4354,19 @@
         <v>1074829</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1026506</v>
+        <v>1024416</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1128415</v>
+        <v>1130578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4338137725881233</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4143101787173019</v>
+        <v>0.4134666186208129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4554419446169973</v>
+        <v>0.4563149618523385</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1255</v>
@@ -4375,19 +4375,19 @@
         <v>1359493</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1303058</v>
+        <v>1295899</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1422670</v>
+        <v>1421771</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3077751317112904</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2949989564340283</v>
+        <v>0.2933780291823516</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3220776739183937</v>
+        <v>0.3218741572841728</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>273187</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>254261</v>
+        <v>252835</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>287401</v>
+        <v>287266</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8861147366450097</v>
+        <v>0.8861147366450098</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8247234377235301</v>
+        <v>0.8200981373817289</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.932219162781582</v>
+        <v>0.9317805710375344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>444</v>
@@ -4740,19 +4740,19 @@
         <v>286781</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>264995</v>
+        <v>269076</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>303362</v>
+        <v>305213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6578200510749931</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6078465280837633</v>
+        <v>0.6172069203938865</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6958533455392331</v>
+        <v>0.7000989307498305</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>730</v>
@@ -4761,19 +4761,19 @@
         <v>559969</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>533666</v>
+        <v>532070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>584936</v>
+        <v>584721</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7523882568092639</v>
+        <v>0.7523882568092638</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7170476196640239</v>
+        <v>0.714902909460308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7859355883143382</v>
+        <v>0.7856463508205165</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>35111</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20897</v>
+        <v>21032</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54037</v>
+        <v>55463</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1138852633549903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06778083721841811</v>
+        <v>0.06821942896246547</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.17527656227647</v>
+        <v>0.179901862618271</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>194</v>
@@ -4811,19 +4811,19 @@
         <v>149176</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>132595</v>
+        <v>130744</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170962</v>
+        <v>166881</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.342179948925007</v>
+        <v>0.3421799489250069</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3041466544607671</v>
+        <v>0.2999010692501691</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3921534719162369</v>
+        <v>0.3827930796061134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>211</v>
@@ -4832,19 +4832,19 @@
         <v>184286</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159319</v>
+        <v>159534</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>210589</v>
+        <v>212185</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2476117431907361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.214064411685662</v>
+        <v>0.2143536491794835</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2829523803359766</v>
+        <v>0.285097090539692</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>381669</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>358263</v>
+        <v>358185</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>398067</v>
+        <v>399377</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8805762436172585</v>
+        <v>0.8805762436172586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8265747013825536</v>
+        <v>0.8263935410780342</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9184082526199309</v>
+        <v>0.9214322595977865</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>701</v>
@@ -4957,19 +4957,19 @@
         <v>441223</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>415883</v>
+        <v>416990</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>463209</v>
+        <v>464993</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5952189472460292</v>
+        <v>0.5952189472460291</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5610341449303444</v>
+        <v>0.5625274235666484</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6248777817249221</v>
+        <v>0.6272853246406674</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1153</v>
@@ -4978,19 +4978,19 @@
         <v>822892</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>791998</v>
+        <v>794233</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>852439</v>
+        <v>853231</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7005068068633008</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6742070757952721</v>
+        <v>0.6761095922615592</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.725658673390843</v>
+        <v>0.7263337024175106</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>51762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35364</v>
+        <v>34054</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75168</v>
+        <v>75246</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1194237563827415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08159174738006911</v>
+        <v>0.07856774040221337</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1734252986174464</v>
+        <v>0.1736064589219658</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>431</v>
@@ -5028,19 +5028,19 @@
         <v>300056</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>278070</v>
+        <v>276286</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>325396</v>
+        <v>324289</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4047810527539709</v>
+        <v>0.4047810527539707</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3751222182750778</v>
+        <v>0.3727146753593327</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4389658550696556</v>
+        <v>0.4374725764333516</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>458</v>
@@ -5049,19 +5049,19 @@
         <v>351818</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>322271</v>
+        <v>321479</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>382712</v>
+        <v>380477</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2994931931366993</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2743413266091569</v>
+        <v>0.2736662975824895</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3257929242047283</v>
+        <v>0.3238904077384409</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>336715</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>311507</v>
+        <v>311890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>354807</v>
+        <v>358464</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8181841223731467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7569293932300869</v>
+        <v>0.7578600079444242</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8621449556087555</v>
+        <v>0.8710297650264537</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>527</v>
@@ -5174,19 +5174,19 @@
         <v>319449</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>296027</v>
+        <v>299449</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>340531</v>
+        <v>340954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.584192519005194</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5413599366886751</v>
+        <v>0.5476182841164836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.622747226888794</v>
+        <v>0.6235197661116169</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>953</v>
@@ -5195,19 +5195,19 @@
         <v>656164</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>621203</v>
+        <v>621589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>683588</v>
+        <v>683624</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6846734398023513</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6481932562592603</v>
+        <v>0.6485957003137991</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7132885589549437</v>
+        <v>0.713325939305042</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>74825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56733</v>
+        <v>53076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100033</v>
+        <v>99650</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1818158776268532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1378550443912447</v>
+        <v>0.1289702349735465</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2430706067699132</v>
+        <v>0.2421399920555757</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>300</v>
@@ -5245,19 +5245,19 @@
         <v>227372</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>206290</v>
+        <v>205867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250794</v>
+        <v>247372</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.415807480994806</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3772527731112062</v>
+        <v>0.3764802338883834</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.458640063311325</v>
+        <v>0.4523817158835163</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>335</v>
@@ -5266,19 +5266,19 @@
         <v>302197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>274773</v>
+        <v>274737</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>337158</v>
+        <v>336772</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3153265601976487</v>
+        <v>0.3153265601976488</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2867114410450563</v>
+        <v>0.2866740606949581</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3518067437407399</v>
+        <v>0.3514042996862009</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>304981</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>281880</v>
+        <v>282863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>322617</v>
+        <v>323717</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8381742874028534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7746844492064118</v>
+        <v>0.777386644865054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8866404356998122</v>
+        <v>0.8896654329229667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>439</v>
@@ -5391,19 +5391,19 @@
         <v>271810</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>252526</v>
+        <v>252226</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>290314</v>
+        <v>290376</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6399972868454088</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5945918596012565</v>
+        <v>0.5938845893657938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6835665412822407</v>
+        <v>0.6837123199702679</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>819</v>
@@ -5412,19 +5412,19 @@
         <v>576792</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>549698</v>
+        <v>544824</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>605062</v>
+        <v>603659</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7314408271591666</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6970835267374393</v>
+        <v>0.6909026843629315</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7672914221175172</v>
+        <v>0.7655124235917148</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>58883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41247</v>
+        <v>40147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81984</v>
+        <v>81001</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1618257125971466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.113359564300188</v>
+        <v>0.1103345670770332</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2253155507935893</v>
+        <v>0.2226133551349462</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>209</v>
@@ -5462,19 +5462,19 @@
         <v>152895</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>134391</v>
+        <v>134329</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>172179</v>
+        <v>172479</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3600027131545912</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3164334587177592</v>
+        <v>0.3162876800297321</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4054081403987435</v>
+        <v>0.406115410634206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>236</v>
@@ -5483,19 +5483,19 @@
         <v>211777</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>183507</v>
+        <v>184910</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>238871</v>
+        <v>243745</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2685591728408334</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2327085778824826</v>
+        <v>0.234487576408285</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3029164732625605</v>
+        <v>0.3090973156370684</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1296554</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1252771</v>
+        <v>1254380</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1332446</v>
+        <v>1335799</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8546075906681471</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8257481962454752</v>
+        <v>0.8268088824305058</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8782653908256882</v>
+        <v>0.8804751370967802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2111</v>
@@ -5608,19 +5608,19 @@
         <v>1319263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1281255</v>
+        <v>1277498</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1361186</v>
+        <v>1360845</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6139643899881553</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5962764010445091</v>
+        <v>0.5945277153525753</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6334747511327591</v>
+        <v>0.6333159622102094</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3655</v>
@@ -5629,19 +5629,19 @@
         <v>2615817</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2557364</v>
+        <v>2556139</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2675684</v>
+        <v>2673283</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.713554800500538</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6976097306326186</v>
+        <v>0.6972754477238697</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.729885696720269</v>
+        <v>0.7292306325950739</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>220580</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184688</v>
+        <v>181335</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>264363</v>
+        <v>262754</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1453924093318531</v>
+        <v>0.1453924093318532</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1217346091743117</v>
+        <v>0.11952486290322</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1742518037545247</v>
+        <v>0.1731911175694942</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1134</v>
@@ -5679,19 +5679,19 @@
         <v>829498</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>787575</v>
+        <v>787916</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>867506</v>
+        <v>871263</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3860356100118448</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.366525248867241</v>
+        <v>0.3666840377897906</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4037235989554911</v>
+        <v>0.4054722846474247</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1240</v>
@@ -5700,19 +5700,19 @@
         <v>1050078</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>990211</v>
+        <v>992612</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1108531</v>
+        <v>1109756</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2864451994994621</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2701143032797308</v>
+        <v>0.2707693674049261</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3023902693673813</v>
+        <v>0.3027245522761303</v>
       </c>
     </row>
     <row r="18">
